--- a/biology/Microbiologie/Halophile/Halophile.xlsx
+++ b/biology/Microbiologie/Halophile/Halophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un organisme halophile (du grec halos, sel et philein, aimer) est un organisme qui s'accommode ou a besoin de fortes concentrations en sel dans son milieu pour vivre. Les micro-organismes halophiles sont des extrémophiles appartenant aux domaines des archées ou des bactéries, mais des plantes sauvages des régions maritimes (les halophytes) et un grand nombre d'algues sont également halophiles.
 De fait, l'halophilie est un caractère très répandu à des degrés divers dans tous les domaines du monde vivant. Au point que même pour bon nombre d'espèces animales (y compris l'homme) ou végétales terrestres qui sont généralement non considérées comme halophiles (pour lesquelles les plus hautes concentrations en sel ne sont plus supportées), une quantité faible de sel dans l'alimentation ou l'environnement reste encore nécessaire pour leur développement, leur bonne santé, leur longévité ou leur persistance endémique dans certains milieux.
@@ -514,11 +526,13 @@
           <t>Types d'halophilie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On distingue plusieurs types d'halophilie :
 l'halophilie simple ou halotolérance : l'organisme considéré tolère des concentrations élevées de sel, mais n'en a pas besoin ;
-l'halophilie stricte ou halophilie obligatoire : le micro-organisme est incapable de se développer dans un milieu qui n'est pas hypersalin. Dans cette dernière catégorie, on peut encore distinguer les halophiles modérés ou extrêmes, en fonction de la concentration en NaCl qui est nécessaire à leur développement : de l'ordre de 5 à 15 % pour les halophiles modérées, plutôt de 10 à 30 % pour les halophiles extrêmes[1].</t>
+l'halophilie stricte ou halophilie obligatoire : le micro-organisme est incapable de se développer dans un milieu qui n'est pas hypersalin. Dans cette dernière catégorie, on peut encore distinguer les halophiles modérés ou extrêmes, en fonction de la concentration en NaCl qui est nécessaire à leur développement : de l'ordre de 5 à 15 % pour les halophiles modérées, plutôt de 10 à 30 % pour les halophiles extrêmes.</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Mécanismes adaptatifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces organismes accumulent au sein de leur cytoplasme d'importantes quantités de sel, essentiellement du chlorure de potassium (KCl), proches de la saturation. De cette façon, ils empêchent la perte d'eau par osmose. Ce faisant, ces organismes s'imposent un nouveau stress cellulaire : le stress salin, lequel devrait provoquer l'insolubilité et la précipitation de ses protéines. En fait, dans les organismes halophiles, les protéines non seulement sont solubles et fonctionnelles dans de fortes concentrations en KCl, mais elles se dénaturent lorsque la concentration en sel diminue.
 Certaines algues ou bactéries continentales apportées en mer par les rivières sécrètent et accumulent dans leur cytoplasme des solutés d'acides aminés comme la glycine bétaïne.
